--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -371,51 +371,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -425,6 +380,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,14 +750,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
@@ -842,14 +842,14 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -881,25 +881,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="29">
         <v>0.375</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="22">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -907,7 +907,7 @@
       <c r="A10" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -922,9 +922,9 @@
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -952,14 +952,14 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="11"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -977,7 +977,7 @@
       <c r="D13" s="12">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1017,10 +1017,10 @@
       <c r="D15" s="12">
         <v>0.67361111111111116</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1043,21 +1043,21 @@
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="31"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="30"/>
+      <c r="F20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
